--- a/config_debug/new_vip_server.xlsx
+++ b/config_debug/new_vip_server.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_debug\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="693" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="693" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -144,14 +149,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,159 +174,22 @@
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -340,194 +202,8 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -550,259 +226,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -827,62 +261,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 4" xfId="49"/>
+    <cellStyle name="常规 4" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1140,19 +530,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.125" style="5" customWidth="1"/>
     <col min="2" max="2" width="23.5" style="5" customWidth="1"/>
@@ -1171,7 +561,7 @@
     <col min="17" max="16384" width="11" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="56.1" customHeight="1" spans="1:16">
+    <row r="1" spans="1:16" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1211,7 +601,7 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" ht="43.5" customHeight="1" spans="1:15">
+    <row r="2" spans="1:16" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1219,7 +609,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="5">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D2" s="5">
         <v>15000</v>
@@ -1248,47 +638,46 @@
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
     </row>
-    <row r="3" ht="43.5" customHeight="1" spans="14:15">
+    <row r="3" spans="1:16" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N3" s="8"/>
       <c r="O3" s="9"/>
     </row>
-    <row r="4" ht="43.5" customHeight="1" spans="14:15">
+    <row r="4" spans="1:16" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N4" s="8"/>
       <c r="O4" s="9"/>
     </row>
-    <row r="5" ht="43.5" customHeight="1" spans="5:15">
+    <row r="5" spans="1:16" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E5" s="6"/>
       <c r="N5" s="8"/>
       <c r="O5" s="9"/>
     </row>
-    <row r="6" ht="25.5" customHeight="1"/>
-    <row r="7" ht="21" customHeight="1"/>
-    <row r="15" spans="5:5">
+    <row r="6" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E15" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.75" style="3" customWidth="1"/>
     <col min="2" max="2" width="20.375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:2">
+    <row r="1" spans="1:2" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -1296,7 +685,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1304,23 +693,23 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>19800</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1328,7 +717,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1336,7 +725,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1344,7 +733,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1352,7 +741,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1360,7 +749,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1368,7 +757,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1377,22 +766,21 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.25" style="3" customWidth="1"/>
     <col min="2" max="2" width="20.625" style="3" customWidth="1"/>
@@ -1402,7 +790,7 @@
     <col min="6" max="6" width="21.875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:6">
+    <row r="1" spans="1:6" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -1422,251 +810,108 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
       <c r="D2" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
       <c r="D3" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3">
-        <v>2</v>
-      </c>
       <c r="D4" s="3">
         <v>3</v>
       </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3">
-        <v>3</v>
-      </c>
       <c r="D5" s="3">
         <v>4</v>
       </c>
-      <c r="E5" s="3">
-        <v>2</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3">
-        <v>4</v>
-      </c>
       <c r="D6" s="3">
         <v>5</v>
       </c>
-      <c r="E6" s="3">
-        <v>3</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
-        <v>6</v>
-      </c>
-      <c r="C7" s="3">
-        <v>5</v>
-      </c>
       <c r="D7" s="3">
         <v>6</v>
       </c>
-      <c r="E7" s="3">
-        <v>3</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
+      <c r="D8" s="3">
         <v>7</v>
       </c>
-      <c r="C8" s="3">
-        <v>6</v>
-      </c>
-      <c r="D8" s="3">
-        <v>6</v>
-      </c>
-      <c r="E8" s="3">
-        <v>3</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
+      <c r="D9" s="3">
         <v>8</v>
       </c>
-      <c r="C9" s="3">
-        <v>7</v>
-      </c>
-      <c r="D9" s="3">
-        <v>6</v>
-      </c>
-      <c r="E9" s="3">
-        <v>3</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
+      <c r="D10" s="3">
         <v>9</v>
       </c>
-      <c r="C10" s="3">
-        <v>8</v>
-      </c>
-      <c r="D10" s="3">
-        <v>6</v>
-      </c>
-      <c r="E10" s="3">
-        <v>3</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
+      <c r="D11" s="3">
         <v>10</v>
       </c>
-      <c r="C11" s="3">
-        <v>9</v>
-      </c>
-      <c r="D11" s="3">
-        <v>6</v>
-      </c>
-      <c r="E11" s="3">
-        <v>3</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3">
-        <v>10</v>
-      </c>
-      <c r="C12" s="3">
-        <v>9</v>
-      </c>
-      <c r="D12" s="3">
-        <v>7</v>
-      </c>
-      <c r="E12" s="3">
-        <v>3</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3">
-        <v>10</v>
-      </c>
-      <c r="C13" s="3">
-        <v>9</v>
-      </c>
-      <c r="D13" s="3">
-        <v>7</v>
-      </c>
-      <c r="E13" s="3">
-        <v>3</v>
-      </c>
-      <c r="F13" s="3">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.125" style="3" customWidth="1"/>
     <col min="2" max="3" width="20.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:3">
+    <row r="1" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -1677,139 +922,138 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="C2" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="C5" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="C7" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="C8" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="3">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="3">
-        <v>11000</v>
+        <v>0</v>
       </c>
       <c r="C10" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="3">
-        <v>17000</v>
+        <v>0</v>
       </c>
       <c r="C11" s="3">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.75" style="3" customWidth="1"/>
     <col min="2" max="2" width="15.625" style="3" customWidth="1"/>
     <col min="3" max="3" width="17.875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:3">
+    <row r="1" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -1820,7 +1064,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1831,7 +1075,7 @@
         <v>99999999</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1842,7 +1086,7 @@
         <v>99999999</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1853,7 +1097,7 @@
         <v>99999999</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1864,7 +1108,7 @@
         <v>99999999</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1875,7 +1119,7 @@
         <v>99999999</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1886,7 +1130,7 @@
         <v>99999999</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1897,7 +1141,7 @@
         <v>99999999</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1908,7 +1152,7 @@
         <v>99999999</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1920,22 +1164,21 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" style="3" customWidth="1"/>
     <col min="2" max="2" width="16.625" style="3" customWidth="1"/>
@@ -1943,7 +1186,7 @@
     <col min="4" max="4" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:4">
+    <row r="1" spans="1:4" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -1957,7 +1200,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1971,7 +1214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1985,7 +1228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1999,7 +1242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2013,7 +1256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2027,7 +1270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2041,7 +1284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2049,46 +1292,75 @@
         <v>0</v>
       </c>
       <c r="C8" s="4">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D8" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:4">
-      <c r="C9" s="4"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="3:4">
-      <c r="C10" s="4"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="3:4">
-      <c r="C11" s="4"/>
-      <c r="D11" s="3"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4">
+        <v>50</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4">
+        <v>50</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4">
+        <v>50</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="9" style="3"/>
     <col min="4" max="4" width="19.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:6">
+    <row r="1" spans="1:6" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2104,7 +1376,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2118,7 +1390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2132,7 +1404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2146,7 +1418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2160,7 +1432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2174,7 +1446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2188,7 +1460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2202,7 +1474,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2216,7 +1488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2231,21 +1503,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="23.625" style="3" customWidth="1"/>
@@ -2254,7 +1525,7 @@
     <col min="6" max="6" width="19.125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:6">
+    <row r="1" spans="1:6" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -2274,7 +1545,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2294,7 +1565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2314,7 +1585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2335,27 +1606,26 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="26.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>37</v>
       </c>
@@ -2363,7 +1633,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2371,7 +1641,7 @@
         <v>10084</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2379,7 +1649,7 @@
         <v>10085</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2387,7 +1657,7 @@
         <v>10086</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2395,7 +1665,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2403,7 +1673,7 @@
         <v>10080</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2411,7 +1681,7 @@
         <v>10169</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2419,7 +1689,7 @@
         <v>10190</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2427,7 +1697,7 @@
         <v>10087</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2435,7 +1705,7 @@
         <v>10088</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2443,7 +1713,7 @@
         <v>10248</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2451,7 +1721,7 @@
         <v>10249</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2459,7 +1729,7 @@
         <v>10250</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2467,7 +1737,7 @@
         <v>10251</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2475,7 +1745,7 @@
         <v>10252</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2483,7 +1753,7 @@
         <v>10253</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2491,7 +1761,7 @@
         <v>10254</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2499,7 +1769,7 @@
         <v>10255</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2508,7 +1778,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/config_debug/new_vip_server.xlsx
+++ b/config_debug/new_vip_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="693" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="693" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -21,13 +21,14 @@
     <sheet name="daily_task_award" sheetId="10" r:id="rId7"/>
     <sheet name="awards" sheetId="8" r:id="rId8"/>
     <sheet name="not_add_vip_progress_lb_id" sheetId="11" r:id="rId9"/>
+    <sheet name="buy_jingbi_add_products|老用户充值返利" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t>no</t>
   </si>
@@ -144,13 +145,16 @@
   </si>
   <si>
     <t>lb_id|不加vip进度的礼包id</t>
+  </si>
+  <si>
+    <t>lb_id|购买金币需要额外加赠的礼包id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,12 +166,14 @@
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -179,10 +185,19 @@
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -227,11 +242,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -260,9 +276,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="2"/>
     <cellStyle name="常规 4" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -663,6 +684,347 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="11"/>
+    <col min="2" max="2" width="39.625" style="11" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="11">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="11">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="11">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="11">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="11">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="11">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="11">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="11">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="11">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="11">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="11">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="11">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="11">
+        <v>24</v>
+      </c>
+      <c r="B25" s="11">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="11">
+        <v>25</v>
+      </c>
+      <c r="B26" s="11">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="11">
+        <v>26</v>
+      </c>
+      <c r="B27" s="11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="11">
+        <v>27</v>
+      </c>
+      <c r="B28" s="11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="11">
+        <v>28</v>
+      </c>
+      <c r="B29" s="11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="11">
+        <v>29</v>
+      </c>
+      <c r="B30" s="11">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="11">
+        <v>30</v>
+      </c>
+      <c r="B31" s="11">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="11">
+        <v>31</v>
+      </c>
+      <c r="B32" s="11">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="11">
+        <v>32</v>
+      </c>
+      <c r="B33" s="11">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="11">
+        <v>33</v>
+      </c>
+      <c r="B34" s="11">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="11">
+        <v>34</v>
+      </c>
+      <c r="B35" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="11">
+        <v>35</v>
+      </c>
+      <c r="B36" s="11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="11">
+        <v>36</v>
+      </c>
+      <c r="B37" s="11">
+        <v>10044</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="11">
+        <v>37</v>
+      </c>
+      <c r="B38" s="11">
+        <v>10045</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="11">
+        <v>38</v>
+      </c>
+      <c r="B39" s="11">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="11">
+        <v>39</v>
+      </c>
+      <c r="B40" s="11">
+        <v>10189</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
@@ -1512,7 +1874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -1616,7 +1978,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_debug/new_vip_server.xlsx
+++ b/config_debug/new_vip_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="693" firstSheet="5" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="693" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -688,7 +688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
@@ -1029,8 +1029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1052,7 +1052,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>4800</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1130,7 +1130,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/config_debug/new_vip_server.xlsx
+++ b/config_debug/new_vip_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="693" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="693" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -1029,7 +1029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1975,10 +1975,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O36" sqref="O36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2067,78 +2067,6 @@
         <v>10088</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>10248</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
-        <v>10249</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <v>10250</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1">
-        <v>10251</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1">
-        <v>10252</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1">
-        <v>10253</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1">
-        <v>10254</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1">
-        <v>10255</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1">
-        <v>10283</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_debug/new_vip_server.xlsx
+++ b/config_debug/new_vip_server.xlsx
@@ -2099,7 +2099,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2135,6 +2135,9 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
+      <c r="B3" s="3">
+        <v>10085</v>
+      </c>
       <c r="C3" t="s">
         <v>42</v>
       </c>
@@ -2143,6 +2146,9 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
+      <c r="B4" s="1">
+        <v>10086</v>
+      </c>
       <c r="C4" t="s">
         <v>41</v>
       </c>
@@ -2260,5 +2266,6 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/config_debug/new_vip_server.xlsx
+++ b/config_debug/new_vip_server.xlsx
@@ -2099,7 +2099,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2135,9 +2135,6 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
-        <v>10085</v>
-      </c>
       <c r="C3" t="s">
         <v>42</v>
       </c>
@@ -2146,9 +2143,6 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>10086</v>
-      </c>
       <c r="C4" t="s">
         <v>41</v>
       </c>
@@ -2266,6 +2260,5 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/config_debug/new_vip_server.xlsx
+++ b/config_debug/new_vip_server.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
   <si>
     <t>no</t>
   </si>
@@ -151,12 +151,6 @@
   </si>
   <si>
     <t>全返礼包I</t>
-  </si>
-  <si>
-    <t>全返礼包III</t>
-  </si>
-  <si>
-    <t>全返礼包II</t>
   </si>
   <si>
     <t>三元超值礼包</t>
@@ -2096,10 +2090,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2117,7 +2111,7 @@
         <v>38</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2132,85 +2126,91 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>10</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>10080</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>41</v>
-      </c>
-    </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>10</v>
-      </c>
-      <c r="C5" s="12" t="s">
+        <v>10169</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>10080</v>
+        <v>10190</v>
       </c>
       <c r="C6" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>10087</v>
+      </c>
+      <c r="C7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>10169</v>
-      </c>
-      <c r="C7" s="13" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>10088</v>
+      </c>
+      <c r="C8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>10190</v>
-      </c>
-      <c r="C8" s="13" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>10290</v>
+      </c>
+      <c r="C9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>10087</v>
-      </c>
-      <c r="C9" t="s">
-        <v>46</v>
-      </c>
-    </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>10088</v>
+        <v>10291</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -2218,47 +2218,26 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>10290</v>
-      </c>
-      <c r="C11" t="s">
+        <v>10346</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>10291</v>
-      </c>
-      <c r="C12" t="s">
+        <v>10347</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <v>10346</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1">
-        <v>10347</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/config_debug/new_vip_server.xlsx
+++ b/config_debug/new_vip_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1624,7 +1624,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2" s="3">
         <v>0</v>
